--- a/web/excelFiles/CLASS 5.xlsx
+++ b/web/excelFiles/CLASS 5.xlsx
@@ -20,87 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Joyce Waithera</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Nathan Machoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janai Omolo</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Rachael Kabura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Gichohi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Wangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Ndungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis Maina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess Wambui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talia Rumeiswa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grace Njoki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheldon Mgawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexine Kweyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Wangari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Wakibi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shirleen Gamaharo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Ngunjiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maureen Wangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trista Nyambura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vivian Irasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Mugure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald Mutuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliet Njeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchel Wambui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Njeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatrice Watheri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Kamau</t>
+    <t xml:space="preserve">Joy Akingy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac Gwaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberly Ibenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Akeyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Mugambi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levin Nando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enock Momanyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayne Omwoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Odhiambo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justus David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Oyoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvia Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krystal Kemunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edith Koros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Ngari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randy Ochola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linnah Awuor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Baraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Britney Ogiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Ogiri</t>
   </si>
 </sst>
 </file>
@@ -115,6 +112,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,7 +213,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,21 +221,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,7 +246,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,10 +254,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,10 +265,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,10 +276,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,10 +287,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,10 +298,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,10 +309,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +323,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,10 +331,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,10 +342,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,10 +353,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,10 +364,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,105 +378,46 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="0" t="n">
         <v>25</v>
       </c>
     </row>
